--- a/data/input_mail/result/current_data_from_mail.xlsx
+++ b/data/input_mail/result/current_data_from_mail.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="209">
   <si>
     <t>CONSIGNEE NAME</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>{"1": "KMHDU41BP8U422808", "2": "KMHDG41DBCU354392", "3": "KMHDU41BP8U579337", "4": "KMHDG41DBCU267788", "5": "KMHDU41BP7U330453", "6": "KMHDC51DP8U057380", "7": "KMHDU41BP7U319807", "8": "KMHDG41DBBU071805"}</t>
+  </si>
+  <si>
+    <t>UNITRADE COMPANY FOR TRADING</t>
   </si>
   <si>
     <t>2049076832022080087</t>
@@ -1158,25 +1161,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2439,25 +2442,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2487,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -2510,22 +2513,22 @@
         <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2533,22 +2536,22 @@
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2556,22 +2559,22 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2579,22 +2582,22 @@
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_mail/result/current_data_from_mail.xlsx
+++ b/data/input_mail/result/current_data_from_mail.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="211">
   <si>
     <t>CONSIGNEE NAME</t>
   </si>
@@ -46,6 +46,9 @@
     <t>FREIGHT FORWARDER ID</t>
   </si>
   <si>
+    <t>gen_time</t>
+  </si>
+  <si>
     <t>SALEH AHMED MOHAMED SALEH</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>940426900</t>
+  </si>
+  <si>
+    <t>2022-08-27 16:38</t>
   </si>
   <si>
     <t>REDA MAHMOUD SADEK MOUSTAFA</t>
@@ -1007,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,9 +1026,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,74 +1051,86 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
+      <c r="H4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1134,20 +1153,21 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1158,28 +1178,34 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1202,9 +1228,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,143 +1253,164 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1420,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1385,9 +1433,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,281 +1458,320 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,9 +1794,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,28 +1819,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,9 +1869,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,28 +1894,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1931,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1842,9 +1944,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1866,419 +1969,476 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
         <v>139</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2448,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2301,20 +2461,21 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2325,74 +2486,86 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>162</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>165</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>167</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
         <v>168</v>
       </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>169</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>172</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" t="s">
-        <v>173</v>
-      </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2402,7 +2575,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2415,20 +2588,21 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2439,28 +2613,34 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2650,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2483,20 +2663,21 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2507,97 +2688,112 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
         <v>189</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
         <v>190</v>
       </c>
-      <c r="F2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
         <v>191</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E5" t="s">
         <v>195</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" t="s">
-        <v>197</v>
-      </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_mail/result/current_data_from_mail.xlsx
+++ b/data/input_mail/result/current_data_from_mail.xlsx
@@ -103,7 +103,7 @@
     <t>940426900</t>
   </si>
   <si>
-    <t>2022-08-27 16:38</t>
+    <t>2022-08-27 16:59</t>
   </si>
   <si>
     <t>REDA MAHMOUD SADEK MOUSTAFA</t>

--- a/data/input_mail/result/current_data_from_mail.xlsx
+++ b/data/input_mail/result/current_data_from_mail.xlsx
@@ -103,7 +103,7 @@
     <t>940426900</t>
   </si>
   <si>
-    <t>2022-08-27 16:59</t>
+    <t>2022-08-27 17:03</t>
   </si>
   <si>
     <t>REDA MAHMOUD SADEK MOUSTAFA</t>

--- a/data/input_mail/result/current_data_from_mail.xlsx
+++ b/data/input_mail/result/current_data_from_mail.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="218">
   <si>
     <t>CONSIGNEE NAME</t>
   </si>
@@ -49,6 +49,9 @@
     <t>gen_time</t>
   </si>
   <si>
+    <t>SHEET</t>
+  </si>
+  <si>
     <t>SALEH AHMED MOHAMED SALEH</t>
   </si>
   <si>
@@ -103,7 +106,10 @@
     <t>940426900</t>
   </si>
   <si>
-    <t>2022-08-27 17:03</t>
+    <t>2022-08-30 22:55</t>
+  </si>
+  <si>
+    <t>ELMONGY</t>
   </si>
   <si>
     <t>REDA MAHMOUD SADEK MOUSTAFA</t>
@@ -178,6 +184,9 @@
     <t>950496286</t>
   </si>
   <si>
+    <t>YOUSEF</t>
+  </si>
+  <si>
     <t>AHMED MOHAMED ELAAWADY ABD ELAAL</t>
   </si>
   <si>
@@ -298,6 +307,9 @@
     <t>940415771</t>
   </si>
   <si>
+    <t>SAM</t>
+  </si>
+  <si>
     <t>SAMAAH AATTIA MAHMOUD ABD ELRAOUF</t>
   </si>
   <si>
@@ -316,6 +328,9 @@
     <t>940403609</t>
   </si>
   <si>
+    <t>MIZIOUT</t>
+  </si>
+  <si>
     <t>WALEED SAAD REZK ELMOLLA</t>
   </si>
   <si>
@@ -331,6 +346,9 @@
     <t>950455865</t>
   </si>
   <si>
+    <t>EGY_KOREA</t>
+  </si>
+  <si>
     <t>DOAA FAYEZ ABD ALLAH ELSAYED ABD ALLAH</t>
   </si>
   <si>
@@ -502,13 +520,7 @@
     <t>950500798</t>
   </si>
   <si>
-    <t>CONSIGNEE NAME:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGYPTIAN IMPORTER VAT NUMBER </t>
-  </si>
-  <si>
-    <t>FOREIGN EXPORTER REGISTRATION NUMBER</t>
+    <t>AL_AMAL</t>
   </si>
   <si>
     <t>INTER FOOD CO.</t>
@@ -562,6 +574,9 @@
     <t>{"1": "KMHDU41BP8U422808", "2": "KMHDG41DBCU354392", "3": "KMHDU41BP8U579337", "4": "KMHDG41DBCU267788", "5": "KMHDU41BP7U330453", "6": "KMHDC51DP8U057380", "7": "KMHDU41BP7U319807", "8": "KMHDG41DBBU071805"}</t>
   </si>
   <si>
+    <t>YOUSEF_MUL</t>
+  </si>
+  <si>
     <t>UNITRADE COMPANY FOR TRADING</t>
   </si>
   <si>
@@ -583,7 +598,7 @@
     <t>{"1": "KMHDG41DBCU372355", "2": "KMHDG41DBBU079227", "3": "KNAFK412BFA430715", "4": "KNAJU811BAK104332", "5": "KNAFW415BBA380984", "6": "KNAFU411BAA225708", "7": "KNAFT411BAA233766", "8": "KNAFU411BAA263508", "9": "KNAFH22139A070842", "10": "KMHDG41DBCU277583"}</t>
   </si>
   <si>
-    <t>CONSIGNEE NAME :</t>
+    <t>ELFEKY_MUL</t>
   </si>
   <si>
     <t>2049431672022060010</t>
@@ -637,6 +652,9 @@
     <t>{"1": "KNAJG55139K008326", "2": "KMHDU41BP7U115765", "3": "KNAFU411BAA168115", "4": "KNAFJ412BDA084886", "5": "KMHDG41DBCU189926", "6": "KLABA76BDDB193710", "7": "KMHDU41BBAU927969", "8": "KNAJU811BBK261679", "9": "KNAFU415BDA589495", "10": "KLABA76BDEB532223"}</t>
   </si>
   <si>
+    <t>AHMED_MUL</t>
+  </si>
+  <si>
     <t>MOHAMED ALI ABASS SALEH ELBATOUT ( CRYSTAL ) &amp; CO.</t>
   </si>
   <si>
@@ -656,6 +674,9 @@
   </si>
   <si>
     <t>{"1": "KNAFH22139A016683", "2": "KNAFK412BGA947944", "3": "KNAFX412BDA022864", "4": "KMHDG41DBBU071361", "5": "KNAJU811BAK149449", "6": "KMHDU41BP8U560321", "7": "KNAFU411BAA263503", "8": "KMHDU41BP8U440438", "9": "KNAFX412BDA055742", "10": "KMHDH41DBDU624351"}</t>
+  </si>
+  <si>
+    <t>SAM_MUL</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1027,9 +1048,10 @@
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,83 +1076,95 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1140,34 +1174,35 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1181,31 +1216,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1229,9 +1270,10 @@
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,161 +1298,182 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1434,9 +1497,10 @@
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,317 +1525,356 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>80</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1795,9 +1898,10 @@
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,31 +1926,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1966,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1870,9 +1980,10 @@
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1897,31 +2008,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +2048,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1945,9 +2062,10 @@
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1972,473 +2090,530 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>122</v>
       </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2448,34 +2623,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2489,83 +2665,95 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
         <v>170</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
         <v>173</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E4" t="s">
         <v>176</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
-      </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2575,34 +2763,35 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2616,31 +2805,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2650,34 +2845,35 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2691,109 +2887,124 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
         <v>196</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
         <v>200</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" t="s">
-        <v>195</v>
-      </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_mail/result/current_data_from_mail.xlsx
+++ b/data/input_mail/result/current_data_from_mail.xlsx
@@ -46,12 +46,12 @@
     <t>FREIGHT FORWARDER ID</t>
   </si>
   <si>
+    <t>SHEET</t>
+  </si>
+  <si>
     <t>gen_time</t>
   </si>
   <si>
-    <t>SHEET</t>
-  </si>
-  <si>
     <t>SALEH AHMED MOHAMED SALEH</t>
   </si>
   <si>
@@ -106,10 +106,10 @@
     <t>940426900</t>
   </si>
   <si>
-    <t>2022-08-30 22:55</t>
-  </si>
-  <si>
     <t>ELMONGY</t>
+  </si>
+  <si>
+    <t>2022-09-01 23:53</t>
   </si>
   <si>
     <t>REDA MAHMOUD SADEK MOUSTAFA</t>
@@ -1047,8 +1047,8 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1187,8 +1187,8 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1243,10 +1243,10 @@
         <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I2" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1269,8 +1269,8 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1325,10 +1325,10 @@
         <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1354,10 +1354,10 @@
         <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1383,10 +1383,10 @@
         <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1412,10 +1412,10 @@
         <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1441,10 +1441,10 @@
         <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1470,10 +1470,10 @@
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1496,8 +1496,8 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1552,10 +1552,10 @@
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1581,10 +1581,10 @@
         <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1610,10 +1610,10 @@
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1639,10 +1639,10 @@
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1668,10 +1668,10 @@
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1697,10 +1697,10 @@
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1726,10 +1726,10 @@
         <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1755,10 +1755,10 @@
         <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1784,10 +1784,10 @@
         <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1813,10 +1813,10 @@
         <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1842,10 +1842,10 @@
         <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1871,10 +1871,10 @@
         <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1897,8 +1897,8 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1953,10 +1953,10 @@
         <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1979,8 +1979,8 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2035,10 +2035,10 @@
         <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2061,8 +2061,8 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2117,10 +2117,10 @@
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2146,10 +2146,10 @@
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2175,10 +2175,10 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2204,10 +2204,10 @@
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2233,10 +2233,10 @@
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2262,10 +2262,10 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2291,10 +2291,10 @@
         <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2320,10 +2320,10 @@
         <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2349,10 +2349,10 @@
         <v>164</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2378,10 +2378,10 @@
         <v>164</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2407,10 +2407,10 @@
         <v>164</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2436,10 +2436,10 @@
         <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2465,10 +2465,10 @@
         <v>164</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2494,10 +2494,10 @@
         <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2523,10 +2523,10 @@
         <v>164</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2552,10 +2552,10 @@
         <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2581,10 +2581,10 @@
         <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2610,10 +2610,10 @@
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2636,8 +2636,8 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2692,10 +2692,10 @@
         <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2721,10 +2721,10 @@
         <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2750,10 +2750,10 @@
         <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="I4" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2776,8 +2776,8 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2832,10 +2832,10 @@
         <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2858,8 +2858,8 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2914,10 +2914,10 @@
         <v>205</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I2" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2943,10 +2943,10 @@
         <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I3" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2972,10 +2972,10 @@
         <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3001,10 +3001,10 @@
         <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
